--- a/Week 1 log.xlsx
+++ b/Week 1 log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxblumenfeld/Documents/Software Projects/Synthetic-Training-Data-UAV-Dector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1840EB1-B44B-B24B-94BB-3D50FFE28B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040D2F9-0219-9B4A-953D-EBA4B5CA724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21340" xr2:uid="{66D3E660-8D94-8C47-B5F0-BB467B4DE307}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Go to microcenter, get corrected on parts, buy pc</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
     <t>pick up pc</t>
   </si>
   <si>
@@ -65,10 +62,10 @@
     <t>write abstract</t>
   </si>
   <si>
-    <t>who (I think that's what ic/oc means)</t>
-  </si>
-  <si>
-    <t>Both</t>
+    <t>Ic/oc</t>
+  </si>
+  <si>
+    <t>oc</t>
   </si>
 </sst>
 </file>
@@ -444,7 +441,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -475,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -489,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>80</v>
@@ -500,10 +497,10 @@
         <v>45538</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -514,10 +511,10 @@
         <v>45538</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -528,10 +525,10 @@
         <v>45538</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>80</v>
